--- a/Twitch-Discord-Reward-API/APICodes.xlsx
+++ b/Twitch-Discord-Reward-API/APICodes.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Twitch-Discord-Reward-API/APICodes.xlsx
+++ b/Twitch-Discord-Reward-API/APICodes.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,9 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5">
+        <v>403</v>
+      </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/Twitch-Discord-Reward-API/APICodes.xlsx
+++ b/Twitch-Discord-Reward-API/APICodes.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
